--- a/src/main/resources/static/modelexcel/temonlinerate.xlsx
+++ b/src/main/resources/static/modelexcel/temonlinerate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC9BAF5-2C58-49AB-8E65-DB22BE5EA6D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3830A3-E3A1-4B19-A402-3FF6E156ADA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="210" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
-    <t>全市道路交通前端科技设备在线率统计表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
   </si>
   <si>
@@ -43,7 +39,7 @@
   </si>
   <si>
     <t>光纤问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>供电问题</t>
@@ -71,39 +67,39 @@
   </si>
   <si>
     <t>淄川区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>博山区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>周村区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>临淄区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>桓台县</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>沂源县</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>高青县</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>高新区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>文昌湖区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
@@ -115,6 +111,10 @@
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全市道路交通前端科技设备在线率统计表（日）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -138,14 +138,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -154,6 +146,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -248,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -263,9 +263,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -286,6 +283,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,118 +631,118 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="A1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="1"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="11" t="s">
+    </row>
+    <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -762,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -782,7 +782,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -802,7 +802,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -822,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -842,7 +842,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -862,7 +862,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -882,7 +882,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -902,7 +902,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -922,7 +922,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -942,7 +942,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" ref="C15:I15" si="0">SUM(C5:C14)</f>

--- a/src/main/resources/static/modelexcel/temonlinerate.xlsx
+++ b/src/main/resources/static/modelexcel/temonlinerate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12090"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,12 +114,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,12 +138,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,6 +172,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -165,23 +210,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,21 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -216,24 +248,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,22 +265,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -271,16 +272,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,187 +288,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,26 +534,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,27 +565,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,7 +583,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,7 +607,27 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,198 +636,183 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1190,7 +1168,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="J3" sqref="J3:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="33" customHeight="1"/>
@@ -1227,19 +1205,19 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1260,7 +1238,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1271,7 +1249,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
-      <c r="R3" s="11"/>
+      <c r="R3" s="9"/>
       <c r="S3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1280,53 +1258,53 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
     <row r="5" customHeight="1" spans="1:19">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="14" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -1375,13 +1353,13 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="15"/>
+      <c r="S6" s="10"/>
     </row>
     <row r="7" customHeight="1" spans="1:19">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="3"/>
@@ -1400,13 +1378,13 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="15"/>
+      <c r="S7" s="10"/>
     </row>
     <row r="8" customHeight="1" spans="1:19">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="3"/>
@@ -1425,13 +1403,13 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="15"/>
+      <c r="S8" s="10"/>
     </row>
     <row r="9" customHeight="1" spans="1:19">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="3"/>
@@ -1450,13 +1428,13 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="15"/>
+      <c r="S9" s="10"/>
     </row>
     <row r="10" customHeight="1" spans="1:19">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="3"/>
@@ -1475,13 +1453,13 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="15"/>
+      <c r="S10" s="10"/>
     </row>
     <row r="11" customHeight="1" spans="1:19">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="3"/>
@@ -1500,13 +1478,13 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="15"/>
+      <c r="S11" s="10"/>
     </row>
     <row r="12" customHeight="1" spans="1:19">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3"/>
@@ -1525,13 +1503,13 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="15"/>
+      <c r="S12" s="10"/>
     </row>
     <row r="13" customHeight="1" spans="1:19">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="3"/>
@@ -1550,13 +1528,13 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="15"/>
+      <c r="S13" s="10"/>
     </row>
     <row r="14" customHeight="1" spans="1:19">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="3"/>
@@ -1575,13 +1553,13 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="15"/>
+      <c r="S14" s="10"/>
     </row>
     <row r="15" customHeight="1" spans="1:19">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="3"/>
@@ -1600,7 +1578,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="15"/>
+      <c r="S15" s="10"/>
     </row>
     <row r="16" customHeight="1" spans="1:19">
       <c r="A16" s="3">
@@ -1673,7 +1651,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S16" s="15" t="e">
+      <c r="S16" s="10" t="e">
         <f>(C16-O16)/C16</f>
         <v>#DIV/0!</v>
       </c>
